--- a/Design/Excel/TransitionTable.xlsx
+++ b/Design/Excel/TransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F394DB-AEBE-445E-8F3E-955FC52CE7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0106B90-EE3C-4D05-A41F-AAF968E970F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTransition" sheetId="2" r:id="rId1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Move]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JumpUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>[JumpDown]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MoveAny]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,10 +568,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,13 +579,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
